--- a/global_data/day_data/605100.xlsx
+++ b/global_data/day_data/605100.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1143"/>
+  <dimension ref="A1:I1145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33555,6 +33557,64 @@
         <v>0.02952507473577666</v>
       </c>
     </row>
+    <row r="1144" spans="1:9">
+      <c r="A1144" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1144">
+        <v>19.8</v>
+      </c>
+      <c r="C1144">
+        <v>20.49</v>
+      </c>
+      <c r="D1144">
+        <v>19.8</v>
+      </c>
+      <c r="E1144">
+        <v>20.36</v>
+      </c>
+      <c r="F1144">
+        <v>5212157</v>
+      </c>
+      <c r="G1144">
+        <v>105868762</v>
+      </c>
+      <c r="H1144">
+        <v>169932000</v>
+      </c>
+      <c r="I1144">
+        <v>0.0306720158651696</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9">
+      <c r="A1145" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1145">
+        <v>20.35</v>
+      </c>
+      <c r="C1145">
+        <v>20.75</v>
+      </c>
+      <c r="D1145">
+        <v>20.25</v>
+      </c>
+      <c r="E1145">
+        <v>20.65</v>
+      </c>
+      <c r="F1145">
+        <v>4126941</v>
+      </c>
+      <c r="G1145">
+        <v>85044621</v>
+      </c>
+      <c r="H1145">
+        <v>169932000</v>
+      </c>
+      <c r="I1145">
+        <v>0.02428583786455759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
